--- a/results/MVSE/dblp/MVSE_dblp<l01><NCEK>88.36.xlsx
+++ b/results/MVSE/dblp/MVSE_dblp<l01><NCEK>88.36.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,7 +584,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -610,7 +610,7 @@
         <v>128</v>
       </c>
       <c r="G3" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H3" t="n">
         <v>50</v>
@@ -632,26 +632,26 @@
         <v>2</v>
       </c>
       <c r="M3" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="N3" t="n">
-        <v>87.16</v>
+        <v>88.36</v>
       </c>
       <c r="O3" t="n">
         <v>0.02</v>
       </c>
       <c r="P3" t="n">
-        <v>0.49</v>
+        <v>0.98</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-20_46_30', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-21_19_45', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>128</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H4" t="n">
         <v>50</v>
@@ -693,32 +693,32 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>4096</v>
+        <v>8192</v>
       </c>
       <c r="L4" t="n">
         <v>2</v>
       </c>
       <c r="M4" t="n">
-        <v>0.61</v>
+        <v>0.36</v>
       </c>
       <c r="N4" t="n">
-        <v>78.95</v>
+        <v>88.19</v>
       </c>
       <c r="O4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="P4" t="n">
-        <v>1.07</v>
+        <v>0.18</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-21_08_36', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-22_27_50', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>128</v>
       </c>
       <c r="G5" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="H5" t="n">
         <v>50</v>
@@ -760,26 +760,428 @@
         </is>
       </c>
       <c r="K5" t="n">
+        <v>8192</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="N5" t="n">
+        <v>87.64</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-22_39_06', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>dblp</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>NCEK</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>128</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H6" t="n">
+        <v>50</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>4096</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L6" t="n">
+        <v>2</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="N6" t="n">
+        <v>87.48999999999999</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-21_31_03', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>dblp</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>NCEK</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>128</v>
+      </c>
+      <c r="G7" t="n">
+        <v>500</v>
+      </c>
+      <c r="H7" t="n">
+        <v>50</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>8192</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="N7" t="n">
+        <v>87.26000000000001</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-22_00_43', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="M5" t="n">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>dblp</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>NCEK</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>128</v>
+      </c>
+      <c r="G8" t="n">
+        <v>100</v>
+      </c>
+      <c r="H8" t="n">
+        <v>50</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>4096</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="N8" t="n">
+        <v>87.16</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-20_46_30', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>dblp</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>NCEK</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>128</v>
+      </c>
+      <c r="G9" t="n">
+        <v>100</v>
+      </c>
+      <c r="H9" t="n">
+        <v>50</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>8192</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="N9" t="n">
+        <v>86.91</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-21_44_39', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>dblp</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>NCEK</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>128</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>50</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>8192</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="N10" t="n">
+        <v>80.52</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-22_16_07', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>dblp</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>NCEK</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>128</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>50</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>4096</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2</v>
+      </c>
+      <c r="M11" t="n">
         <v>0.61</v>
       </c>
-      <c r="N5" t="n">
+      <c r="N11" t="n">
         <v>78.95</v>
       </c>
-      <c r="O5" t="n">
+      <c r="O11" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P11" t="n">
         <v>1.07</v>
       </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-21_12_12', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 0, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-21_08_36', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
     </row>
